--- a/server/events.xlsx
+++ b/server/events.xlsx
@@ -32,9 +32,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>timestamp</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,90 +477,90 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
